--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1979432.686387393</v>
+        <v>1977019.773881587</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9731966.31891408</v>
+        <v>9731966.318914078</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>332.2110827772213</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>266.8782537240069</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1543,7 +1543,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957277</v>
       </c>
       <c r="I13" t="n">
         <v>49.37728379124554</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>209.3529512725054</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,7 +1667,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>218.3373217201512</v>
       </c>
       <c r="X14" t="n">
         <v>322.7559640598765</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5096953211453</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C17" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D17" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783476</v>
       </c>
       <c r="E17" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F17" t="n">
-        <v>338.6518993993761</v>
+        <v>268.9014443097192</v>
       </c>
       <c r="G17" t="n">
-        <v>156.6331629553283</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629249</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587701</v>
       </c>
       <c r="E19" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423383</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059591</v>
+        <v>77.1969016805959</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669288</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198544</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750277</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771201</v>
+        <v>20.708006327712</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T19" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U19" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W19" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X19" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>169.4088944111955</v>
+        <v>314.5096953211452</v>
       </c>
       <c r="C20" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
-        <v>286.4588952783477</v>
+        <v>216.7084401886906</v>
       </c>
       <c r="E20" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299264</v>
       </c>
       <c r="F20" t="n">
         <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T20" t="n">
         <v>135.6938237972848</v>
@@ -2239,25 +2239,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.0226747562925</v>
+        <v>99.02267475629249</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587702</v>
+        <v>80.39132667587701</v>
       </c>
       <c r="E22" t="n">
-        <v>78.20981630423384</v>
+        <v>78.20981630423383</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059591</v>
+        <v>77.1969016805959</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669289</v>
+        <v>97.80166191669288</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198545</v>
+        <v>76.53086857198544</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750278</v>
+        <v>28.12827406750277</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771201</v>
+        <v>20.708006327712</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891065</v>
       </c>
       <c r="T22" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338338</v>
       </c>
       <c r="U22" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814926</v>
       </c>
       <c r="W22" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942556</v>
       </c>
       <c r="X22" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097594</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211453</v>
+        <v>314.509695321145</v>
       </c>
       <c r="C23" t="n">
-        <v>297.0487454286722</v>
+        <v>297.048745428672</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783477</v>
+        <v>286.4588952783474</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299265</v>
+        <v>313.7062237299263</v>
       </c>
       <c r="F23" t="n">
-        <v>338.6518993993761</v>
+        <v>338.6518993993759</v>
       </c>
       <c r="G23" t="n">
-        <v>342.6975793111181</v>
+        <v>342.6975793111179</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449852</v>
+        <v>226.3836180449849</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584052</v>
+        <v>40.9636154458403</v>
       </c>
       <c r="T23" t="n">
-        <v>135.6938237972849</v>
+        <v>135.6938237972846</v>
       </c>
       <c r="U23" t="n">
-        <v>182.7710256165666</v>
+        <v>182.7710256165664</v>
       </c>
       <c r="V23" t="n">
-        <v>259.5281121277996</v>
+        <v>259.5281121277994</v>
       </c>
       <c r="W23" t="n">
-        <v>281.0168223750777</v>
+        <v>281.0168223750775</v>
       </c>
       <c r="X23" t="n">
-        <v>301.5069543361337</v>
+        <v>301.5069543361335</v>
       </c>
       <c r="Y23" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137181</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.607833839602</v>
+        <v>111.6078338396018</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629252</v>
+        <v>99.0226747562923</v>
       </c>
       <c r="D25" t="n">
-        <v>80.39132667587704</v>
+        <v>80.39132667587683</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423385</v>
+        <v>78.20981630423364</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059593</v>
+        <v>77.19690168059572</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669291</v>
+        <v>97.80166191669269</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198547</v>
+        <v>76.53086857198525</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750279</v>
+        <v>28.12827406750257</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771203</v>
+        <v>20.7080063277118</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891066</v>
+        <v>121.5448789891064</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338339</v>
+        <v>151.3248029338337</v>
       </c>
       <c r="U25" t="n">
-        <v>217.9876918632775</v>
+        <v>217.9876918632773</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814927</v>
+        <v>183.9134969814925</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942557</v>
+        <v>218.2988519942555</v>
       </c>
       <c r="X25" t="n">
-        <v>157.4855090467018</v>
+        <v>157.4855090467016</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097595</v>
+        <v>150.3605070097593</v>
       </c>
     </row>
     <row r="26">
@@ -2731,7 +2731,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687285</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404365</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448879</v>
       </c>
       <c r="C32" t="n">
         <v>318.2977551524149</v>
@@ -3035,7 +3035,7 @@
         <v>307.7079050020903</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536692</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231188</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958321</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210275</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988203</v>
       </c>
       <c r="X32" t="n">
         <v>322.7559640598764</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.262802037461</v>
+        <v>339.2628020374609</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,16 +3193,16 @@
         <v>101.6403363996197</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797653</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433863</v>
+        <v>98.4459114043386</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404376</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572814</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124547</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145472</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3253,7 +3253,7 @@
         <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335021</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007077</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.0675382420298</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893079</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="36">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383222</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052276</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010728</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846409</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482617</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>47.0702946862158</v>
+        <v>47.0702946862157</v>
       </c>
       <c r="I37" t="n">
-        <v>42.20693826439344</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>239.4866237999603</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957229</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084859</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>103.2225584308255</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>98.69583361727692</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084561</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>293.0767011150999</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>222.6491710540652</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.2291684549207</v>
+        <v>37.22916845492055</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256467</v>
       </c>
       <c r="V41" t="n">
-        <v>27.58726541534696</v>
+        <v>255.7936651368796</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841577</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.7725073452137</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.873386848682</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537268</v>
+        <v>95.28822776537254</v>
       </c>
       <c r="D43" t="n">
-        <v>76.6568796849572</v>
+        <v>76.65687968495706</v>
       </c>
       <c r="E43" t="n">
-        <v>74.47536931331402</v>
+        <v>74.47536931331388</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967609</v>
+        <v>73.46245468967595</v>
       </c>
       <c r="G43" t="n">
-        <v>94.06721492577307</v>
+        <v>94.06721492577293</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106563</v>
+        <v>72.79642158106549</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658282</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.38621557233276</v>
+        <v>16.97355933679205</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981866</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429139</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723577</v>
+        <v>245.6659011079009</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905727</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033357</v>
       </c>
       <c r="X43" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188395</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302253</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377523</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874277</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084561</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201982</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651756</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.2291684549207</v>
+        <v>37.22916845492055</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063649</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>179.0365786256467</v>
       </c>
       <c r="V44" t="n">
-        <v>255.7936651368798</v>
+        <v>255.7936651368796</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841577</v>
       </c>
       <c r="X44" t="n">
-        <v>251.8860761401142</v>
+        <v>297.7725073452137</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.873386848682</v>
       </c>
       <c r="C46" t="n">
-        <v>95.28822776537268</v>
+        <v>95.28822776537254</v>
       </c>
       <c r="D46" t="n">
-        <v>76.6568796849572</v>
+        <v>76.65687968495706</v>
       </c>
       <c r="E46" t="n">
-        <v>74.47536931331402</v>
+        <v>74.47536931331388</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967609</v>
+        <v>73.46245468967595</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577307</v>
+        <v>94.06721492577293</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106563</v>
+        <v>72.79642158106549</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658296</v>
+        <v>24.39382707658282</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679219</v>
+        <v>16.97355933679205</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981866</v>
       </c>
       <c r="T46" t="n">
-        <v>179.0030121784546</v>
+        <v>179.0030121784573</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723576</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905727</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033357</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557819</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188395</v>
       </c>
     </row>
   </sheetData>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232655</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232655</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>990.5514538055359</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>652.2128341553645</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822729</v>
+        <v>652.2128341553645</v>
       </c>
       <c r="G11" t="n">
         <v>316.6460838753429</v>
@@ -5039,10 +5039,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5051,7 +5051,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939509</v>
@@ -5081,10 +5081,10 @@
         <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2039.649557260394</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>1696.959858232655</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5160,10 +5160,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5179,16 +5179,16 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
         <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998332</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
@@ -5197,10 +5197,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5215,7 +5215,7 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P13" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q13" t="n">
         <v>2299.337630107746</v>
@@ -5224,7 +5224,7 @@
         <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.367519464212</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="C14" t="n">
-        <v>979.8546354718738</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="D14" t="n">
-        <v>979.8546354718738</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E14" t="n">
-        <v>641.5160158217029</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F14" t="n">
-        <v>277.9797439801687</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,10 +5288,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
         <v>3018.302393296685</v>
@@ -5300,7 +5300,7 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
         <v>3262.764786084339</v>
@@ -5312,16 +5312,16 @@
         <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921006</v>
+        <v>2393.999824030772</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607999</v>
+        <v>2067.983698717765</v>
       </c>
       <c r="Y14" t="n">
-        <v>1640.517726580261</v>
+        <v>1725.293999690027</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5367,7 +5367,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E16" t="n">
         <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5431,31 +5431,31 @@
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315259</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328091</v>
       </c>
       <c r="L16" t="n">
-        <v>771.697886033711</v>
+        <v>771.6978860337119</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O16" t="n">
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
         <v>2256.956805813347</v>
@@ -5476,10 +5476,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="17">
@@ -5492,55 +5492,55 @@
         <v>1473.076688949002</v>
       </c>
       <c r="C17" t="n">
-        <v>1173.027451142263</v>
+        <v>1173.027451142262</v>
       </c>
       <c r="D17" t="n">
-        <v>883.6750316691841</v>
+        <v>883.6750316691839</v>
       </c>
       <c r="E17" t="n">
-        <v>566.800058204612</v>
+        <v>566.8000582046118</v>
       </c>
       <c r="F17" t="n">
-        <v>224.7274325486766</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218342</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912091</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269938</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T17" t="n">
         <v>3147.163963787832</v>
@@ -5589,16 +5589,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5650,25 +5650,25 @@
         <v>609.220726506103</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118681</v>
       </c>
       <c r="D19" t="n">
         <v>427.9944624332045</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844834</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286362</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016602</v>
+        <v>94.924514480166</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.6347488791189</v>
@@ -5677,19 +5677,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
-        <v>660.8064733261643</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>1004.963518925713</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.371895631578</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1645.701494551991</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.308994985651</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
         <v>1955.919291138165</v>
@@ -5698,22 +5698,22 @@
         <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T19" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U19" t="n">
         <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W19" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125286</v>
       </c>
       <c r="Y19" t="n">
         <v>721.9559122026707</v>
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1661.02054385384</v>
+        <v>1473.076688949002</v>
       </c>
       <c r="C20" t="n">
-        <v>1360.971306047101</v>
+        <v>1173.027451142263</v>
       </c>
       <c r="D20" t="n">
-        <v>1071.618886574023</v>
+        <v>954.1300368102518</v>
       </c>
       <c r="E20" t="n">
-        <v>754.7439131094503</v>
+        <v>637.2550633456797</v>
       </c>
       <c r="F20" t="n">
-        <v>412.6712874535149</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218339</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5777,25 +5777,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3284.228432269937</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.541353127064</v>
+        <v>3147.163963787832</v>
       </c>
       <c r="U20" t="n">
-        <v>3003.924155534572</v>
+        <v>2962.54676619534</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.774547324673</v>
+        <v>2700.397157985441</v>
       </c>
       <c r="W20" t="n">
-        <v>2457.919171188231</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X20" t="n">
-        <v>2153.366692060823</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y20" t="n">
-        <v>1832.140639218684</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
         <v>765.151745215813</v>
@@ -5841,40 +5841,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5887,46 +5887,46 @@
         <v>609.220726506103</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118682</v>
+        <v>509.1978227118681</v>
       </c>
       <c r="D22" t="n">
         <v>427.9944624332045</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844835</v>
+        <v>348.9946479844834</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202452</v>
+        <v>271.0179796202451</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286362</v>
+        <v>172.2284221286361</v>
       </c>
       <c r="H22" t="n">
         <v>94.924514480166</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>140.2594919287919</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>344.2466748776682</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>660.8064733261643</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>1004.963518925713</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.371895631578</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
         <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.308994985651</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
         <v>1955.919291138165</v>
@@ -5935,22 +5935,22 @@
         <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
-        <v>1812.229507989864</v>
+        <v>1812.229507989863</v>
       </c>
       <c r="T22" t="n">
-        <v>1659.376171693062</v>
+        <v>1659.376171693061</v>
       </c>
       <c r="U22" t="n">
         <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.415374880163</v>
+        <v>1253.415374880162</v>
       </c>
       <c r="W22" t="n">
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125287</v>
+        <v>873.8352122125286</v>
       </c>
       <c r="Y22" t="n">
         <v>721.9559122026707</v>
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237165</v>
+        <v>1898.193195237164</v>
       </c>
       <c r="C23" t="n">
         <v>1598.143957430425</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957347</v>
+        <v>1308.791537957346</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927748</v>
+        <v>991.9165644927745</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368392</v>
+        <v>649.8439388368391</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155075</v>
+        <v>303.6847678155071</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J23" t="n">
-        <v>263.8935775169721</v>
+        <v>361.9270325896014</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068184</v>
+        <v>695.7464062794479</v>
       </c>
       <c r="L23" t="n">
-        <v>1048.747164455227</v>
+        <v>1146.780619527857</v>
       </c>
       <c r="M23" t="n">
-        <v>1582.279069127151</v>
+        <v>1680.312524199781</v>
       </c>
       <c r="N23" t="n">
-        <v>2129.057886185933</v>
+        <v>2227.091341258564</v>
       </c>
       <c r="O23" t="n">
-        <v>2632.03035706527</v>
+        <v>2730.063812137901</v>
       </c>
       <c r="P23" t="n">
-        <v>3345.385444512216</v>
+        <v>3443.418899584846</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340531</v>
+        <v>3691.705261340529</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897334</v>
+        <v>3750.722327897331</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.3449385581</v>
+        <v>3709.344938558098</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075994</v>
+        <v>3572.280470075993</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483503</v>
+        <v>3387.663272483501</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273604</v>
+        <v>3125.513664273603</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137162</v>
+        <v>2841.658288137161</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009753</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167615</v>
+        <v>2215.879756167614</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068715</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257445</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644934</v>
       </c>
       <c r="E24" t="n">
-        <v>467.4212906590382</v>
+        <v>467.4212906590378</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859232</v>
+        <v>320.8867326859229</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185413</v>
+        <v>184.5236325185414</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640876</v>
+        <v>94.0217381564089</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485643</v>
       </c>
       <c r="K24" t="n">
-        <v>406.955915028911</v>
+        <v>406.9559150289114</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415763</v>
+        <v>773.6540753415768</v>
       </c>
       <c r="M24" t="n">
-        <v>1220.930400563892</v>
+        <v>1220.930400563893</v>
       </c>
       <c r="N24" t="n">
         <v>1694.453444118347</v>
       </c>
       <c r="O24" t="n">
-        <v>2105.414723536401</v>
+        <v>2105.414723536402</v>
       </c>
       <c r="P24" t="n">
-        <v>2415.914315012504</v>
+        <v>2415.914315012505</v>
       </c>
       <c r="Q24" t="n">
-        <v>2573.555872659103</v>
+        <v>2573.555872659104</v>
       </c>
       <c r="R24" t="n">
         <v>2573.41151925162</v>
@@ -6105,10 +6105,10 @@
         <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597427</v>
+        <v>1533.873320597426</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391894</v>
+        <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
         <v>1118.26152162694</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318665</v>
+        <v>617.7230566318649</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376315</v>
+        <v>517.7001528376302</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589679</v>
+        <v>436.4967925589667</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102468</v>
+        <v>357.4969781102458</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460085</v>
+        <v>279.5203097460077</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543995</v>
+        <v>180.730752254399</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059293</v>
+        <v>103.426844605929</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794668</v>
+        <v>75.01444655794663</v>
       </c>
       <c r="J25" t="n">
-        <v>148.7618220545557</v>
+        <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>352.749005003432</v>
+        <v>324.1242619537586</v>
       </c>
       <c r="L25" t="n">
-        <v>669.3088034519282</v>
+        <v>640.6840604022548</v>
       </c>
       <c r="M25" t="n">
-        <v>1013.465849051477</v>
+        <v>1013.465849051473</v>
       </c>
       <c r="N25" t="n">
-        <v>1354.874225757342</v>
+        <v>1354.874225757338</v>
       </c>
       <c r="O25" t="n">
-        <v>1654.203824677755</v>
+        <v>1654.203824677751</v>
       </c>
       <c r="P25" t="n">
-        <v>1886.811325111414</v>
+        <v>1886.81132511141</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263929</v>
+        <v>1964.421621263925</v>
       </c>
       <c r="R25" t="n">
-        <v>1943.504443155129</v>
+        <v>1943.504443155126</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115627</v>
+        <v>1820.731838115624</v>
       </c>
       <c r="T25" t="n">
-        <v>1667.878501818825</v>
+        <v>1667.878501818823</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.688914078141</v>
+        <v>1447.688914078138</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005926</v>
+        <v>1261.917705005924</v>
       </c>
       <c r="W25" t="n">
-        <v>1041.413814102638</v>
+        <v>1041.413814102635</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382922</v>
+        <v>882.3375423382902</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284342</v>
+        <v>730.4582423284323</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L26" t="n">
-        <v>1453.404136464984</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M26" t="n">
-        <v>1986.936041136909</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N26" t="n">
-        <v>2533.714858195691</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O26" t="n">
-        <v>3036.687329075028</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
         <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913844</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519665</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398493</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1468.364237198915</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M29" t="n">
-        <v>2095.324921473371</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532153</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.07620941149</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6558,7 +6558,7 @@
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698008</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899672</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257048</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.484033191385</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.043718641548</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="32">
@@ -6674,58 +6674,58 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1468.364237198916</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.89614187084</v>
+        <v>1863.465327102305</v>
       </c>
       <c r="N32" t="n">
-        <v>2787.236323611206</v>
+        <v>2410.244144161087</v>
       </c>
       <c r="O32" t="n">
         <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
         <v>3835.976694641921</v>
@@ -6734,13 +6734,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572845</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.154208495152</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698016</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C34" t="n">
-        <v>652.614500289968</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257056</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913858</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.043718641549</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
         <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982175</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308442</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481262</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.856749167328</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.03837257035</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519679</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="35">
@@ -6920,34 +6920,34 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464969</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307335</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939507</v>
@@ -6956,13 +6956,13 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710108</v>
       </c>
       <c r="T35" t="n">
         <v>3206.680274668174</v>
@@ -6980,7 +6980,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,22 +7020,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389139</v>
+        <v>500.9308303909351</v>
       </c>
       <c r="C37" t="n">
-        <v>571.9707875848504</v>
+        <v>430.6660820368717</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725147</v>
+        <v>379.2208771983795</v>
       </c>
       <c r="E37" t="n">
-        <v>273.9410545901216</v>
+        <v>329.97921818983</v>
       </c>
       <c r="F37" t="n">
-        <v>225.7225416660546</v>
+        <v>281.7607052657631</v>
       </c>
       <c r="G37" t="n">
-        <v>156.691139614617</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H37" t="n">
-        <v>109.1453874063182</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1612.513483058688</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U37" t="n">
-        <v>1323.410616184332</v>
+        <v>1280.777345210196</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.397562552288</v>
+        <v>1124.764291578152</v>
       </c>
       <c r="W37" t="n">
-        <v>976.6518270891709</v>
+        <v>934.0185561150353</v>
       </c>
       <c r="X37" t="n">
-        <v>847.333710764997</v>
+        <v>804.7004397908614</v>
       </c>
       <c r="Y37" t="n">
-        <v>725.2125661953103</v>
+        <v>583.9078606473313</v>
       </c>
     </row>
     <row r="38">
@@ -7157,61 +7157,61 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.53823536262</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7269,34 +7269,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>651.0765132702854</v>
+        <v>453.7336441225984</v>
       </c>
       <c r="C40" t="n">
-        <v>580.8117649162219</v>
+        <v>383.4688957685348</v>
       </c>
       <c r="D40" t="n">
-        <v>476.5465543800345</v>
+        <v>332.0236909300424</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6334607976414</v>
+        <v>282.7820319214927</v>
       </c>
       <c r="F40" t="n">
-        <v>280.4149478735745</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>211.3835458221369</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7357,25 +7357,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1621.35446039006</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1430.923028089547</v>
+        <v>1332.251593515703</v>
       </c>
       <c r="V40" t="n">
-        <v>1274.909974457503</v>
+        <v>1176.23853988366</v>
       </c>
       <c r="W40" t="n">
-        <v>985.4928044205424</v>
+        <v>985.4928044205423</v>
       </c>
       <c r="X40" t="n">
-        <v>856.1746880963685</v>
+        <v>757.5032535225249</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.0535435266818</v>
+        <v>635.3821089528382</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.057853045221</v>
+        <v>1820.70792253502</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916178</v>
+        <v>1524.430853405977</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1238.850602610596</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339206</v>
+        <v>925.7477978237207</v>
       </c>
       <c r="F41" t="n">
-        <v>633.7972713556819</v>
+        <v>587.4473408454824</v>
       </c>
       <c r="G41" t="n">
-        <v>291.4102690120474</v>
+        <v>291.4102690120473</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T41" t="n">
-        <v>3288.000600947634</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U41" t="n">
-        <v>3107.155572032839</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370873</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912128</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787773</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297974</v>
+        <v>2134.622314787773</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7494,46 +7494,46 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622245</v>
       </c>
       <c r="C43" t="n">
-        <v>486.5648106456875</v>
+        <v>486.5648106456866</v>
       </c>
       <c r="D43" t="n">
-        <v>409.1336190447206</v>
+        <v>409.1336190447199</v>
       </c>
       <c r="E43" t="n">
-        <v>333.9059732736963</v>
+        <v>333.9059732736957</v>
       </c>
       <c r="F43" t="n">
-        <v>259.7014735871548</v>
+        <v>259.7014735871544</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732423</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246923</v>
+        <v>91.15234580246909</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1878.419582863914</v>
+        <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1759.419146502109</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T43" t="n">
-        <v>1610.337978883004</v>
+        <v>1642.06793467648</v>
       </c>
       <c r="U43" t="n">
-        <v>1393.920559820016</v>
+        <v>1393.920559820014</v>
       </c>
       <c r="V43" t="n">
-        <v>1211.921519425498</v>
+        <v>1211.921519425496</v>
       </c>
       <c r="W43" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999047</v>
       </c>
       <c r="X43" t="n">
-        <v>839.8856941132578</v>
+        <v>839.8856941132562</v>
       </c>
       <c r="Y43" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810952</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.05785304522</v>
+        <v>1503.254038370578</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241535</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461535</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339207</v>
+        <v>921.3967184461535</v>
       </c>
       <c r="F44" t="n">
-        <v>633.797271355682</v>
+        <v>583.0962614679147</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.70925912428</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7658,40 +7658,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3288.000600947634</v>
+        <v>3288.000600947635</v>
       </c>
       <c r="T44" t="n">
-        <v>3154.708301143225</v>
+        <v>3154.708301143226</v>
       </c>
       <c r="U44" t="n">
-        <v>2973.86327222843</v>
+        <v>2973.863272228431</v>
       </c>
       <c r="V44" t="n">
-        <v>2715.485832696228</v>
+        <v>2715.485832696229</v>
       </c>
       <c r="W44" t="n">
-        <v>2435.402625237482</v>
+        <v>2435.402625237484</v>
       </c>
       <c r="X44" t="n">
-        <v>2180.972245297973</v>
+        <v>2134.622314787774</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297973</v>
+        <v>1817.168430623331</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7731,7 +7731,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.8155457622256</v>
+        <v>582.8155457622245</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456875</v>
+        <v>486.5648106456866</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447206</v>
+        <v>409.1336190447199</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736963</v>
+        <v>333.9059732736957</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871548</v>
+        <v>259.7014735871544</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732423</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246923</v>
+        <v>91.15234580246909</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7834,22 +7834,22 @@
         <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1610.337978883004</v>
+        <v>1610.337978883001</v>
       </c>
       <c r="U46" t="n">
-        <v>1393.920559820016</v>
+        <v>1393.920559820014</v>
       </c>
       <c r="V46" t="n">
-        <v>1211.921519425498</v>
+        <v>1211.921519425496</v>
       </c>
       <c r="W46" t="n">
-        <v>995.1897971999064</v>
+        <v>995.1897971999047</v>
       </c>
       <c r="X46" t="n">
-        <v>839.8856941132578</v>
+        <v>839.8856941132562</v>
       </c>
       <c r="Y46" t="n">
-        <v>691.7785627810965</v>
+        <v>691.7785627810952</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331812</v>
+        <v>161.2833466331811</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772615</v>
+        <v>190.4708996772612</v>
       </c>
       <c r="L8" t="n">
-        <v>199.0214867114938</v>
+        <v>199.0214867114936</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499971</v>
+        <v>189.4604205499968</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253958</v>
+        <v>187.8656757253955</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001305</v>
+        <v>190.8661912001302</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610381</v>
+        <v>197.7493741610379</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168183</v>
+        <v>197.1608845168182</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723703</v>
+        <v>115.0671825723702</v>
       </c>
       <c r="K9" t="n">
-        <v>117.7238752484545</v>
+        <v>117.7238752484543</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888319</v>
+        <v>111.5038326888317</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586508</v>
+        <v>110.5673213586505</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809817</v>
+        <v>98.93952256809794</v>
       </c>
       <c r="O9" t="n">
-        <v>112.9545713195526</v>
+        <v>112.9545713195524</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755403</v>
+        <v>110.1843514755401</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137825</v>
+        <v>124.0787517137824</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747617</v>
+        <v>119.3562654747616</v>
       </c>
       <c r="M10" t="n">
-        <v>122.553251996029</v>
+        <v>122.5532519960288</v>
       </c>
       <c r="N10" t="n">
-        <v>111.7023147290573</v>
+        <v>111.7023147290572</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297872</v>
+        <v>123.6934388297871</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182094</v>
+        <v>125.0956219182093</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>99.02369199255486</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>99.02369199255904</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>402.5500016878937</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>165.390262243155</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>94.37250464902115</v>
+        <v>231.106682116137</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>108.735493551574</v>
       </c>
       <c r="N32" t="n">
-        <v>240.9710754359421</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-13</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>31.7355062576396</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>55.87771033586959</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020904</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>154.5936377623555</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>83.92851037866924</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23741,13 +23741,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>69.75045508965687</v>
       </c>
       <c r="G17" t="n">
-        <v>186.0644163557899</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23966,13 +23966,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145.1008009099498</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>69.75045508965698</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>342.6975793111181</v>
       </c>
       <c r="H20" t="n">
-        <v>226.3836180449851</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584052</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.035038804137912e-12</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>45.88643120509823</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25679,13 +25679,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>228.2063997215328</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>314.2793453227983</v>
       </c>
     </row>
     <row r="42">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390065</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.19399978888956</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,10 +25928,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>45.88643120509968</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>902856.8961358672</v>
+        <v>902856.8961358671</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>775510.0012600648</v>
+        <v>775510.0012600647</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>775510.0012600647</v>
+        <v>775510.0012600645</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799189.8976962036</v>
+        <v>799189.8976962037</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799189.8976962034</v>
+        <v>799189.8976962036</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847094.6196083813</v>
+        <v>847094.6196083811</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>857966.9320216683</v>
+        <v>857966.9320216681</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>857966.9320216682</v>
+        <v>857966.9320216681</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>803351.5654228848</v>
+        <v>803351.5654228849</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>803351.5654228847</v>
+        <v>803351.5654228849</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614457.2540377788</v>
+        <v>614457.2540377786</v>
       </c>
       <c r="C2" t="n">
         <v>614457.2540377787</v>
@@ -26320,40 +26320,40 @@
         <v>614471.1549754214</v>
       </c>
       <c r="E2" t="n">
-        <v>573398.2574173822</v>
+        <v>573398.2574173821</v>
       </c>
       <c r="F2" t="n">
-        <v>573398.2574173822</v>
+        <v>573398.2574173826</v>
       </c>
       <c r="G2" t="n">
-        <v>591158.1797444861</v>
+        <v>591158.179744486</v>
       </c>
       <c r="H2" t="n">
-        <v>591158.179744487</v>
+        <v>591158.1797444862</v>
       </c>
       <c r="I2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="J2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="K2" t="n">
+        <v>615781.3273982129</v>
+      </c>
+      <c r="L2" t="n">
+        <v>615781.3273982125</v>
+      </c>
+      <c r="M2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="L2" t="n">
-        <v>615781.327398213</v>
-      </c>
-      <c r="M2" t="n">
-        <v>615781.3273982129</v>
-      </c>
       <c r="N2" t="n">
-        <v>615781.3273982132</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="O2" t="n">
         <v>594279.4305394976</v>
       </c>
       <c r="P2" t="n">
-        <v>594279.4305394974</v>
+        <v>594279.4305394979</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004264931</v>
+        <v>49603.99004264967</v>
       </c>
       <c r="E3" t="n">
         <v>1114814.601112467</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899421</v>
+        <v>16999.20777899405</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716372</v>
+        <v>28261.85161716384</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.4523822541</v>
+        <v>40637.45238225404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899425</v>
+        <v>16999.20777899428</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>425002.2112916264</v>
+        <v>425002.2112916263</v>
       </c>
       <c r="E4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861084</v>
       </c>
       <c r="F4" t="n">
-        <v>58825.50137861085</v>
+        <v>58825.50137861084</v>
       </c>
       <c r="G4" t="n">
-        <v>72234.15779441225</v>
+        <v>72234.15779441228</v>
       </c>
       <c r="H4" t="n">
-        <v>72234.15779441225</v>
+        <v>72234.15779441228</v>
       </c>
       <c r="I4" t="n">
-        <v>87358.26236286783</v>
+        <v>87358.26236286778</v>
       </c>
       <c r="J4" t="n">
         <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173091</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173091</v>
+        <v>84858.15940173095</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815718</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="O4" t="n">
-        <v>74600.57793586687</v>
+        <v>74600.57793586695</v>
       </c>
       <c r="P4" t="n">
-        <v>74600.57793586687</v>
+        <v>74600.57793586692</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.2685025347</v>
+        <v>34890.26850253471</v>
       </c>
       <c r="E5" t="n">
         <v>78255.49332178176</v>
@@ -26488,16 +26488,16 @@
         <v>80041.87632024707</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582716</v>
+        <v>86503.64721582714</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624984</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432673</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432672</v>
+        <v>80355.82754432673</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139180.4040419584</v>
+        <v>139175.99046409</v>
       </c>
       <c r="C6" t="n">
-        <v>139180.4040419582</v>
+        <v>139175.9904640901</v>
       </c>
       <c r="D6" t="n">
-        <v>104974.6851386109</v>
+        <v>104970.3178972014</v>
       </c>
       <c r="E6" t="n">
-        <v>-678497.3383954776</v>
+        <v>-678638.6152954136</v>
       </c>
       <c r="F6" t="n">
-        <v>436317.2627169896</v>
+        <v>436175.9858170539</v>
       </c>
       <c r="G6" t="n">
-        <v>421882.9378508326</v>
+        <v>421800.8606919869</v>
       </c>
       <c r="H6" t="n">
-        <v>438882.1456298277</v>
+        <v>438800.0684709811</v>
       </c>
       <c r="I6" t="n">
         <v>413657.5662023539</v>
       </c>
       <c r="J6" t="n">
-        <v>400907.7739394215</v>
+        <v>400907.7739394217</v>
       </c>
       <c r="K6" t="n">
-        <v>441545.2263216756</v>
+        <v>441545.2263216759</v>
       </c>
       <c r="L6" t="n">
-        <v>424546.0185426817</v>
+        <v>424546.0185426812</v>
       </c>
       <c r="M6" t="n">
-        <v>240130.6191110816</v>
+        <v>240130.6191110814</v>
       </c>
       <c r="N6" t="n">
-        <v>442298.7191038062</v>
+        <v>442298.7191038053</v>
       </c>
       <c r="O6" t="n">
-        <v>439323.025059304</v>
+        <v>439251.3520697749</v>
       </c>
       <c r="P6" t="n">
-        <v>439323.0250593038</v>
+        <v>439251.3520697752</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859258</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076618</v>
+        <v>57.9205735107666</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>937.6805819743328</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="H4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="I4" t="n">
-        <v>937.6805819743334</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,25 +26920,25 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484983</v>
+        <v>25.7261268948496</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374281</v>
+        <v>21.24900972374285</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.70958360951243</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076618</v>
+        <v>57.9205735107666</v>
       </c>
       <c r="E3" t="n">
         <v>1031.856127082532</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.279126572041</v>
+        <v>106.2791265720402</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428109</v>
+        <v>76.65587923428154</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374277</v>
+        <v>21.24900972374279</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484983</v>
+        <v>25.7261268948496</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.090162624442</v>
       </c>
       <c r="I8" t="n">
-        <v>201.4990738507122</v>
+        <v>201.4990738507121</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.2425723098103</v>
+        <v>135.2425723098102</v>
       </c>
       <c r="S8" t="n">
         <v>203.7140793596058</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858947</v>
+        <v>85.10723188858944</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643175</v>
+        <v>92.4227054864317</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659313</v>
+        <v>169.3690802659312</v>
       </c>
       <c r="T9" t="n">
-        <v>199.6625682508934</v>
+        <v>199.6625682508933</v>
       </c>
       <c r="U9" t="n">
         <v>225.9331857734025</v>
@@ -28032,10 +28032,10 @@
         <v>152.3094707112974</v>
       </c>
       <c r="J10" t="n">
-        <v>85.97478175284935</v>
+        <v>85.97478175284931</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657807</v>
+        <v>10.13465691657798</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.41603665156869</v>
+        <v>77.41603665156863</v>
       </c>
       <c r="R10" t="n">
         <v>172.5970773348047</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>28.91388186835655</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.91388186835606</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="J22" t="n">
-        <v>28.91388186835654</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>28.91388186835627</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233533</v>
+        <v>68.22414634233535</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="J25" t="n">
-        <v>28.91388186835708</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,7 +29226,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>28.9138818683528</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233532</v>
+        <v>68.22414634233553</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.9751366185908</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859265</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="I37" t="n">
-        <v>54.14548214544468</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>46.72521440565259</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810508</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>45.39291458738684</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>46.72521440565433</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="G43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.54593709771459</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325515</v>
+        <v>40.54593709771194</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="C46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="T46" t="n">
-        <v>40.54593709771461</v>
+        <v>40.54593709771191</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325515</v>
+        <v>71.95859333325529</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764468</v>
+        <v>0.2328465266764485</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325161</v>
+        <v>2.384639491325179</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693723</v>
+        <v>8.976815719693789</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350509</v>
+        <v>19.76255789350524</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771909</v>
+        <v>29.6189513677193</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849341</v>
+        <v>36.74492825849367</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727567</v>
+        <v>40.88581267727596</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119513</v>
+        <v>41.54738787119543</v>
       </c>
       <c r="O8" t="n">
-        <v>39.2320202215562</v>
+        <v>39.23202022155649</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423142</v>
+        <v>33.48362159423166</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763116</v>
+        <v>25.14480535763134</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133936</v>
+        <v>14.62654563133947</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639537</v>
+        <v>5.305990226639575</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526146</v>
+        <v>1.019285670526154</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411574</v>
+        <v>0.01862772213411587</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986292</v>
+        <v>0.1245838750986301</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610445</v>
+        <v>1.203217951610454</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825609</v>
+        <v>4.28940096282564</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429636</v>
+        <v>11.77044409429645</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590452</v>
+        <v>20.11756372590466</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104227</v>
+        <v>27.05054709104246</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336757</v>
+        <v>31.56671256336779</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523513</v>
+        <v>32.40218951523536</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489182</v>
+        <v>29.64167312489204</v>
       </c>
       <c r="P9" t="n">
-        <v>23.79005593878998</v>
+        <v>23.79005593879016</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.90302237223905</v>
+        <v>15.90302237223916</v>
       </c>
       <c r="R9" t="n">
-        <v>7.735128666211382</v>
+        <v>7.735128666211438</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906553</v>
+        <v>2.31409083790657</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282462</v>
+        <v>0.5021604439282499</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278237</v>
+        <v>0.008196307572278296</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390865</v>
+        <v>0.1044469358390873</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9286282113693338</v>
+        <v>0.9286282113693405</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960895</v>
+        <v>3.141004215960917</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823419</v>
+        <v>7.384398363823472</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930478</v>
+        <v>12.13483490930487</v>
       </c>
       <c r="L10" t="n">
-        <v>15.52841080647656</v>
+        <v>15.52841080647667</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157608</v>
+        <v>16.3725319515762</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617586</v>
+        <v>15.98322973617598</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205562</v>
+        <v>14.76309962205573</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093824</v>
+        <v>12.63238213093834</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125693</v>
+        <v>8.746006600125757</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364745</v>
+        <v>4.696314042364778</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395717</v>
+        <v>1.82022523639573</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124606</v>
+        <v>0.4462732713124638</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591222909</v>
+        <v>0.00569710559122295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33278,10 +33278,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33986,7 +33986,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
         <v>447.6103584002926</v>
@@ -34214,7 +34214,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34451,10 +34451,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837924</v>
@@ -35577,7 +35577,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687128</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>348.6712540385547</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>107.3081204062497</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>74.49229848142274</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36291,7 +36291,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>331.267012090996</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>289.8106929612674</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>349.8179967962785</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.49229848142328</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>376.5472612618366</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>858.1401160802257</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302265</v>
@@ -36607,16 +36607,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>673.443263131374</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>633.2936204792477</v>
+        <v>770.0277979463635</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36926,10 +36926,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -36996,7 +36996,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>647.6566093818005</v>
       </c>
       <c r="N32" t="n">
-        <v>793.2729108488536</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861309</v>
       </c>
       <c r="O34" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
         <v>281.932207763703</v>
@@ -37315,7 +37315,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37552,7 +37552,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37634,7 +37634,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.05300088822</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
@@ -37862,7 +37862,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -38035,10 +38035,10 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037204</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,10 +38099,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004591</v>
